--- a/misc/key_log.xlsx
+++ b/misc/key_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>person</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>royce CK gate</t>
+  </si>
+  <si>
+    <t>Caroline</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,29 +687,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>1</v>
       </c>
     </row>

--- a/misc/key_log.xlsx
+++ b/misc/key_log.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +606,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -709,9 +712,6 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">

--- a/misc/key_log.xlsx
+++ b/misc/key_log.xlsx
@@ -99,7 +99,7 @@
     <t>royce CK gate</t>
   </si>
   <si>
-    <t>Caroline</t>
+    <t>Samantha</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
     </row>
@@ -714,8 +714,11 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>

--- a/misc/key_log.xlsx
+++ b/misc/key_log.xlsx
@@ -99,7 +99,7 @@
     <t>royce CK gate</t>
   </si>
   <si>
-    <t>Samantha</t>
+    <t>Peter/Spare</t>
   </si>
 </sst>
 </file>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,20 +690,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
@@ -721,6 +707,20 @@
         <v>1</v>
       </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
